--- a/Screw-conveyor/Shaftless_flight.xlsx
+++ b/Screw-conveyor/Shaftless_flight.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\VTK-Screw-conveyor3\Screw-conveyor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487B3C77-6C55-4965-A7EC-3E0F3B15D770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE468F1F-D2E5-41E6-8645-91EF3908A74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="345" windowWidth="20385" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="1380" windowWidth="20385" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://en.wikipedia.org/wiki/Torsion_constant</t>
   </si>
@@ -46,6 +47,21 @@
   </si>
   <si>
     <t xml:space="preserve">beta </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>A=</t>
+  </si>
+  <si>
+    <t>B=</t>
+  </si>
+  <si>
+    <t>J=</t>
+  </si>
+  <si>
+    <t>a.b^3</t>
   </si>
 </sst>
 </file>
@@ -1616,4 +1632,74 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD05EC6-9D8E-44B8-B468-B644B4443031}">
+  <dimension ref="C7:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>D7*D8^3</f>
+        <v>1250000</v>
+      </c>
+      <c r="F13">
+        <f>1/3-D15*D16</f>
+        <v>0.26776048739751179</v>
+      </c>
+      <c r="H13">
+        <f>D13*F13</f>
+        <v>334700.60924688977</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>0.21*D8/D7</f>
+        <v>6.5625000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>1-(D8^4/(12*D7^4))</f>
+        <v>0.99920527140299475</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>